--- a/road_traffic/fitness.xlsx
+++ b/road_traffic/fitness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\process mining\pm4py\road_traffic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA1AFE4-AFC4-4629-841F-664F82CFF4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1AFEE8-5CD0-4534-B15E-568520399988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9024" xr2:uid="{07B94767-5DC1-4B3B-9FBC-0F9B4C71E218}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07B94767-5DC1-4B3B-9FBC-0F9B4C71E218}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>cluster 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,22 @@
   </si>
   <si>
     <t>running time(seconds)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log-based</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trace-based</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trace fitness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72D3A8B-AC97-456B-8DE4-BA101B779A00}">
-  <dimension ref="B6:I24"/>
+  <dimension ref="B6:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -457,7 +473,7 @@
     <col min="6" max="7" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>1</v>
       </c>
@@ -467,8 +483,20 @@
       <c r="I6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -487,8 +515,20 @@
       <c r="I7">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0.4</v>
+      </c>
+      <c r="N7">
+        <v>0.8</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.89422999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -501,8 +541,20 @@
       <c r="I8">
         <v>482</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>0.35</v>
+      </c>
+      <c r="N8">
+        <v>0.7</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.62209999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>6</v>
       </c>
@@ -518,8 +570,20 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>0.3</v>
+      </c>
+      <c r="N9">
+        <v>0.6</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.99988999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>5</v>
       </c>
@@ -532,8 +596,20 @@
       <c r="I10">
         <v>864</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>0.35</v>
+      </c>
+      <c r="N10">
+        <v>0.7</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.62209999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>8</v>
       </c>
@@ -546,8 +622,20 @@
       <c r="I11">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>0.25</v>
+      </c>
+      <c r="N11">
+        <v>0.5</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.99490000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -563,8 +651,20 @@
       <c r="I12">
         <v>333</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>0.30430000000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.60860000000000003</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.73314999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>4</v>
       </c>
@@ -577,8 +677,20 @@
       <c r="I13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>0.3</v>
+      </c>
+      <c r="N13">
+        <v>0.6</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>7</v>
       </c>
@@ -591,8 +703,20 @@
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>0.3</v>
+      </c>
+      <c r="N14">
+        <v>0.6</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>10</v>
       </c>
@@ -605,8 +729,20 @@
       <c r="I15">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>0.25</v>
+      </c>
+      <c r="N15">
+        <v>0.5</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.99490000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -625,8 +761,20 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>5</v>
       </c>
@@ -639,8 +787,20 @@
       <c r="I17">
         <v>883</v>
       </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="N17">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.96179999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>6</v>
       </c>
@@ -656,8 +816,20 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>5</v>
       </c>
@@ -670,8 +842,20 @@
       <c r="I19">
         <v>872</v>
       </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="N19">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.96179999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>8</v>
       </c>
@@ -684,8 +868,20 @@
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -701,8 +897,20 @@
       <c r="I21">
         <v>585</v>
       </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>0.45229999999999998</v>
+      </c>
+      <c r="N21">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.96579999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>4</v>
       </c>
@@ -715,8 +923,20 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>7</v>
       </c>
@@ -729,8 +949,20 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>10</v>
       </c>
@@ -742,6 +974,18 @@
       </c>
       <c r="I24">
         <v>83</v>
+      </c>
+      <c r="L24">
+        <v>0.34375</v>
+      </c>
+      <c r="N24">
+        <v>0.6875</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.98809999999999998</v>
       </c>
     </row>
   </sheetData>
